--- a/applications/ContentUpload/input/Sample Content.xlsx
+++ b/applications/ContentUpload/input/Sample Content.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d033027/Documents/GitHub/ContentUpload/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d033027/Documents/GitHub/cloud-alm-api-examples/applications/ContentUpload/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B8FD7D-83AE-5D4F-BD68-E48F85513961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD9AFA-21F8-AB42-A971-8870735A72C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="2180" windowWidth="28320" windowHeight="16100" xr2:uid="{B8E33C24-D37B-4E02-B9ED-3DBD4120E97F}"/>
+    <workbookView xWindow="10020" yWindow="11800" windowWidth="28320" windowHeight="16100" activeTab="1" xr2:uid="{B8E33C24-D37B-4E02-B9ED-3DBD4120E97F}"/>
   </bookViews>
   <sheets>
     <sheet name="Solution Processes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>https://all41sonline.sharepoint.com/sites/XYZ/</t>
-  </si>
-  <si>
     <t>BPML</t>
   </si>
   <si>
@@ -82,36 +79,6 @@
     <t>02%20Rollen%C3%BCbersicht/Role_Sheet_SD.xlsx</t>
   </si>
   <si>
-    <t>Packaging in Production with planned HUs</t>
-  </si>
-  <si>
-    <t>Production of Coproducts</t>
-  </si>
-  <si>
-    <t>Hazardous Management with Warehouse Management</t>
-  </si>
-  <si>
-    <t>Discrete Manufacturing-Special Processes</t>
-  </si>
-  <si>
-    <t>Strockroom Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production plan is entered as planned independent requirements. MRP creates planned orders based on requirements and MRP settings in material master record.Planned orders are converted into production orders. Production orders will be released immediately and needed documents will be printed with release of order. A material movement for required components and materials from warehouse to production storage location will be posted.With the operation confirmation materials are backflushed. The last operation is a packing process, the finished product will be packed into created Handling Units. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production plan is entered as planned independent requirements. MRP Run creates planned orders based on requirements and MRP settings in material master record. The planned orders are converted into production orders, which are released automatically. 
-This process involves the simultaneous production of two materials (for example, the left and the right part), which is processed using the joint production. 
-Material staging is carried out to provide the needed components in production. With the confirmation, the material movements (backflushing of the components and goods receipt of the two co-products) are posted. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This process is the complete processing of purchasing, production and sale with dispatch for a material with dangerous goods handling. The requirements are passed on to the purchasing parts via the customer order. The purchase items are procured via an order and are then made available for a production order. After production of the finished material a delivery can be created and the goods can be shipped. 
-Beyond this global process, the hazardous material can also be used in all other WM processes. These are not listed here. However, they can be defined analogously to the processes AS37 to AS47 and carried out with a material which has been declared as dangerous goods. Changes result from this in the areas of storage type search, storage bin search and storage section search. The process steps for the user are retained. 
-</t>
-  </si>
-  <si>
     <t>Role Overview</t>
   </si>
   <si>
@@ -169,26 +136,48 @@
     <t>US</t>
   </si>
   <si>
-    <t>AC00_01</t>
-  </si>
-  <si>
-    <t>AC01_01</t>
-  </si>
-  <si>
-    <t>AC07_01</t>
-  </si>
-  <si>
     <t>DE, AE</t>
   </si>
   <si>
     <t>DE, CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet. Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet. Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet. 
+Duis autem vel eum iriure dolor in hendrerit in vulputate velit esse molestie consequat, vel illum dolore eu feugiat nulla facilisis at vero eros et accumsan et iusto odio dignissim qui blandit praesent luptatum zzril delenit augue duis dolore te feugait nulla facilisi. Lorem ipsum dolor sit amet, consectetuer adipiscing elit, sed diam nonummy nibh euismod tincidunt ut laoreet dolore magna aliquam erat volutpat. </t>
+  </si>
+  <si>
+    <t>Lorem Ipsum 1</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum 2</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum 3</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum BP 1</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum BP 2</t>
+  </si>
+  <si>
+    <t>IPS01</t>
+  </si>
+  <si>
+    <t>IPS02</t>
+  </si>
+  <si>
+    <t>IPS03</t>
+  </si>
+  <si>
+    <t>https://my.sharepoint.com/sites/XYZ/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +210,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,12 +266,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -287,8 +285,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 14 2 3 3 2 6" xfId="2" xr:uid="{7B34112B-A4EF-412A-A110-21F13A361130}"/>
     <cellStyle name="Standard 16 2 2 3 2 6" xfId="1" xr:uid="{7799E760-2011-4BFE-8105-5C7191B2B0B1}"/>
@@ -606,9 +606,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -628,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -640,61 +638,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="304" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -1493,9 +1491,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1508,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1517,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -1528,7 +1524,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1536,99 +1532,99 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1636,99 +1632,99 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1736,100 +1732,117 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2E4A17AD-A427-DC40-924B-FFC02E6DA322}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{22A9FF04-079A-F341-BB67-8179E8489BBF}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E3EC8ECF-2C05-2A4E-A05C-500548A7868A}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D73AE66E-C81A-984D-8CF7-347E779CBDAF}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{AF6DAC1A-1F1A-0A45-9136-0050D7C8BE4B}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{B4F6BE34-9B5B-F64B-921D-79886C649500}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{1B883829-AA2F-0044-8F7C-B55522F80590}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{5CAF1D9F-3BB6-EB4A-B98C-F100135241CE}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{184D81F9-9E96-6440-9B74-41728113FDA0}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{B87F2B9F-5DF6-B94A-9D3E-1C0245816B16}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{C21F379E-B0ED-E340-8491-093ED70F8D40}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{2BF541E5-44BB-2C4A-AE77-D924BAA2D6F1}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{C1AFA489-D71D-5B4E-BF56-D1A768B71BF0}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{CB233162-5801-0543-9DBA-6C3D801B02BE}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{CA0FBE13-093F-E549-9EC0-D4F019F78622}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1843,6 +1856,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d0ed3ca2-9f65-48f7-b860-393f60d04052" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9483849f-e75d-423c-a8ca-6edae6e70315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EFDDA3138569C54C8C668EAAE37044A2" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="279f9c34bfa3e0347c9f20a79066060e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9483849f-e75d-423c-a8ca-6edae6e70315" xmlns:ns3="d0ed3ca2-9f65-48f7-b860-393f60d04052" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90c44cbb0b475636f67672ccf3b0b01b" ns2:_="" ns3:_="">
     <xsd:import namespace="9483849f-e75d-423c-a8ca-6edae6e70315"/>
@@ -2059,17 +2083,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d0ed3ca2-9f65-48f7-b860-393f60d04052" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9483849f-e75d-423c-a8ca-6edae6e70315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3537408-77DA-490F-A9A5-F913C491DAD6}">
   <ds:schemaRefs>
@@ -2079,6 +2092,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102828BE-4020-41D9-A855-B87294169A3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d0ed3ca2-9f65-48f7-b860-393f60d04052"/>
+    <ds:schemaRef ds:uri="9483849f-e75d-423c-a8ca-6edae6e70315"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75A9EE65-E4E3-454C-A60E-D623D34A42DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2095,21 +2125,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{102828BE-4020-41D9-A855-B87294169A3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d0ed3ca2-9f65-48f7-b860-393f60d04052"/>
-    <ds:schemaRef ds:uri="9483849f-e75d-423c-a8ca-6edae6e70315"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>